--- a/analiticosxlsx/35.xlsx
+++ b/analiticosxlsx/35.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11017"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemora/Documents/Github/Scrapers/Presupuesto 2023/analiticosxlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D468475-B8C0-7140-9743-699744D48852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300008B2-649B-6E42-B7D1-F1EA4AF84F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2160" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1660" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -661,16 +661,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="6.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*GASTOS-(Subt.25+30+32+34+35) + Ítem25.01+Intereses y Otros Gastos Financieros de Deuda + Gasto Proyectado Fondo de Emergencia Transitorio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="7"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -1123,6 +1113,9 @@
       </rPr>
       <t>*GASTOS-(Subt.25+30+32+34+35) + Ítem25.01+Intereses y Otros Gastos Financieros de Deuda + Gasto Proyectado Fondo de Emergencia Transitorio</t>
     </r>
+  </si>
+  <si>
+    <t>En miles de US$</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1128,7 @@
     <numFmt numFmtId="166" formatCode="00"/>
     <numFmt numFmtId="167" formatCode="000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1145,6 +1138,7 @@
     <font>
       <sz val="6.5"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="6.5"/>
@@ -1155,6 +1149,7 @@
     <font>
       <sz val="7"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="7"/>
@@ -1163,12 +1158,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="6.5"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1313,7 +1304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1598,6 +1589,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1939,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3330,8 +3324,8 @@
       <c r="M46" s="80"/>
     </row>
     <row r="47" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="74" t="s">
-        <v>52</v>
+      <c r="A47" s="95" t="s">
+        <v>85</v>
       </c>
       <c r="B47" s="74"/>
       <c r="C47" s="74"/>
@@ -3347,16 +3341,16 @@
     </row>
     <row r="48" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="C48" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="68" t="s">
+      <c r="D48" s="70" t="s">
         <v>55</v>
-      </c>
-      <c r="D48" s="70" t="s">
-        <v>56</v>
       </c>
       <c r="E48" s="31">
         <v>-1</v>
@@ -3387,25 +3381,25 @@
       <c r="C49" s="69"/>
       <c r="D49" s="71"/>
       <c r="E49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="H49" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="H49" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="73" t="s">
+      <c r="J49" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="J49" s="73" t="s">
+      <c r="K49" s="73" t="s">
         <v>61</v>
-      </c>
-      <c r="K49" s="73" t="s">
-        <v>62</v>
       </c>
       <c r="L49" s="27"/>
     </row>
@@ -3414,7 +3408,7 @@
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" s="33">
         <v>22288</v>
@@ -3446,7 +3440,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="65"/>
       <c r="D51" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E51" s="35">
         <v>10</v>
@@ -3478,7 +3472,7 @@
       </c>
       <c r="C52" s="66"/>
       <c r="D52" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" s="38">
         <v>10</v>
@@ -3510,7 +3504,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="66"/>
       <c r="D53" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" s="40">
         <v>17924</v>
@@ -3542,7 +3536,7 @@
       </c>
       <c r="C54" s="66"/>
       <c r="D54" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" s="40">
         <v>17924</v>
@@ -3574,7 +3568,7 @@
       <c r="B55" s="11"/>
       <c r="C55" s="66"/>
       <c r="D55" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="40">
         <v>4354</v>
@@ -3606,7 +3600,7 @@
       </c>
       <c r="C56" s="67"/>
       <c r="D56" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="43">
         <v>4354</v>
@@ -3636,7 +3630,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" s="33">
         <v>22288</v>
@@ -3668,7 +3662,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58" s="45">
         <v>13600</v>
@@ -3700,7 +3694,7 @@
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59" s="40">
         <v>2938</v>
@@ -3732,7 +3726,7 @@
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E60" s="40">
         <v>4858</v>
@@ -3764,7 +3758,7 @@
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E61" s="40">
         <v>4858</v>
@@ -3796,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E62" s="38">
         <v>70</v>
@@ -3826,7 +3820,7 @@
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -3844,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E64" s="40">
         <v>1804</v>
@@ -3876,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E65" s="38">
         <v>136</v>
@@ -3908,7 +3902,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" s="40">
         <v>1950</v>
@@ -3940,7 +3934,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E67" s="38">
         <v>898</v>
@@ -3972,7 +3966,7 @@
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E68" s="38">
         <v>892</v>
@@ -4004,7 +3998,7 @@
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E69" s="38">
         <v>44</v>
@@ -4036,7 +4030,7 @@
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E70" s="44">
         <v>848</v>
@@ -4077,7 +4071,7 @@
     </row>
     <row r="72" spans="1:12" ht="9.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
@@ -4107,7 +4101,7 @@
     </row>
     <row r="73" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
@@ -4123,16 +4117,16 @@
     </row>
     <row r="74" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="68" t="s">
+      <c r="C74" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="68" t="s">
+      <c r="D74" s="70" t="s">
         <v>55</v>
-      </c>
-      <c r="D74" s="70" t="s">
-        <v>56</v>
       </c>
       <c r="E74" s="31">
         <v>-1</v>
@@ -4163,25 +4157,25 @@
       <c r="C75" s="69"/>
       <c r="D75" s="71"/>
       <c r="E75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="32" t="s">
+      <c r="H75" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="H75" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="I75" s="73" t="s">
+      <c r="J75" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="J75" s="73" t="s">
+      <c r="K75" s="73" t="s">
         <v>61</v>
-      </c>
-      <c r="K75" s="73" t="s">
-        <v>62</v>
       </c>
       <c r="L75" s="27"/>
     </row>
@@ -4190,7 +4184,7 @@
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E76" s="33">
         <v>22288</v>
@@ -4222,7 +4216,7 @@
       <c r="B77" s="9"/>
       <c r="C77" s="65"/>
       <c r="D77" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E77" s="35">
         <v>10</v>
@@ -4254,7 +4248,7 @@
       </c>
       <c r="C78" s="66"/>
       <c r="D78" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E78" s="38">
         <v>10</v>
@@ -4286,7 +4280,7 @@
       <c r="B79" s="11"/>
       <c r="C79" s="66"/>
       <c r="D79" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E79" s="40">
         <v>17924</v>
@@ -4318,7 +4312,7 @@
       </c>
       <c r="C80" s="66"/>
       <c r="D80" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E80" s="40">
         <v>17924</v>
@@ -4350,7 +4344,7 @@
       <c r="B81" s="11"/>
       <c r="C81" s="66"/>
       <c r="D81" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E81" s="40">
         <v>4354</v>
@@ -4382,7 +4376,7 @@
       </c>
       <c r="C82" s="67"/>
       <c r="D82" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E82" s="43">
         <v>4354</v>
@@ -4412,7 +4406,7 @@
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E83" s="33">
         <v>22288</v>
@@ -4444,7 +4438,7 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E84" s="45">
         <v>13600</v>
@@ -4476,7 +4470,7 @@
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E85" s="40">
         <v>2938</v>
@@ -4508,7 +4502,7 @@
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E86" s="40">
         <v>4858</v>
@@ -4540,7 +4534,7 @@
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E87" s="40">
         <v>4858</v>
@@ -4572,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E88" s="38">
         <v>70</v>
@@ -4602,7 +4596,7 @@
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
@@ -4620,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E90" s="40">
         <v>1804</v>
@@ -4652,7 +4646,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E91" s="38">
         <v>136</v>
@@ -4684,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E92" s="40">
         <v>1950</v>
@@ -4716,7 +4710,7 @@
         <v>7</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E93" s="38">
         <v>898</v>
@@ -4748,7 +4742,7 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E94" s="38">
         <v>892</v>
@@ -4780,7 +4774,7 @@
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E95" s="38">
         <v>44</v>
@@ -4812,7 +4806,7 @@
       </c>
       <c r="C96" s="21"/>
       <c r="D96" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E96" s="44">
         <v>848</v>
@@ -4853,7 +4847,7 @@
     </row>
     <row r="98" spans="1:13" ht="9.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="52"/>
       <c r="C98" s="52"/>
@@ -4883,7 +4877,7 @@
     </row>
     <row r="99" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
